--- a/gkhncglr/evidence.xlsx
+++ b/gkhncglr/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3795" windowHeight="2685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="42">
   <si>
     <t>TxHash</t>
   </si>
@@ -78,24 +78,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -142,6 +124,51 @@
   </si>
   <si>
     <t>omniflix1lhm8l68q860pwd46su4r0kt2z3xskjfnnrhhfj</t>
+  </si>
+  <si>
+    <t>rammstein</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>2A236F23102C61E8933EFC6FB36E948930C20AD4F5BEC1E7CE5708BEE77783EE</t>
+  </si>
+  <si>
+    <t>9E1E6287E1E823833E615C6F89AC2519D3BEDBB6877455DE2421E743F51A7B20</t>
+  </si>
+  <si>
+    <t>nft001</t>
+  </si>
+  <si>
+    <t>nft002</t>
+  </si>
+  <si>
+    <t>FFBB9BCCDDE535711B428171FFEB6D7B4B5A3D66676E7998E024559C8B8B68A2</t>
+  </si>
+  <si>
+    <t>juno1szeq87v64sjsz9jdysq42yz4jakr68sz5kad6d2hxyqr2xyn6pjs5ukgah</t>
+  </si>
+  <si>
+    <t>9AD410250F15347517936B65E62FE315B823F1C3861205614A59C1346BBDFAD3</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>ibc/C0AE2E9D836877FA882FD8AEB731ED7701097DAA1BBF2BA60044C47FD7A7158E</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>9497D48F42497C40956D7AE7E61139B1C65806C2E66EC87F7BA63CF82ADD39DA</t>
+  </si>
+  <si>
+    <t>348C4656528B4EF0FB94485954690A06813EE6D8B904FD5F523453F1CBBC0BE7</t>
+  </si>
+  <si>
+    <t>ED78051C873D7C52D0AEA663E4C0A4F29EA3A01B7291C3DB3982A82D4E7F7B14</t>
   </si>
 </sst>
 </file>
@@ -538,7 +565,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -556,54 +583,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1048,16 +1075,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,16 +1095,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1315,13 +1351,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1338,13 +1377,24 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1359,11 +1409,65 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="87.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1382,37 +1486,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1433,37 +1540,40 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1480,68 +1590,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
